--- a/Experiment 3/Trace Files/ThroughputGraph.xlsx
+++ b/Experiment 3/Trace Files/ThroughputGraph.xlsx
@@ -268,61 +268,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>410.81165088799997</c:v>
+                  <c:v>221.58069982699999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>413.34302539700002</c:v>
+                  <c:v>256.03151157100001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>402.73081299400002</c:v>
+                  <c:v>247.44230311699999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>412.555996478</c:v>
+                  <c:v>254.58217312799999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>413.624212274</c:v>
+                  <c:v>254.55101728599999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>413.355089986</c:v>
+                  <c:v>254.68348230699999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>413.77081493399999</c:v>
+                  <c:v>254.72246884899999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>413.44098826800001</c:v>
+                  <c:v>254.78487214800001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>413.876761961</c:v>
+                  <c:v>254.84730603099999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>414.28697303000001</c:v>
+                  <c:v>254.87853444800001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>413.98276325699999</c:v>
+                  <c:v>254.97226563699999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>414.39260316999997</c:v>
+                  <c:v>255.003524688</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>414.02932521299999</c:v>
+                  <c:v>255.02697400700001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>414.41311506900001</c:v>
+                  <c:v>255.020681104</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>413.64596677600002</c:v>
+                  <c:v>255.020681104</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>413.64596677600002</c:v>
+                  <c:v>255.052148725</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>414.02915589999998</c:v>
+                  <c:v>255.020681104</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>413.64596677600002</c:v>
+                  <c:v>255.020681104</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>110.759493671</c:v>
+                  <c:v>255.02697400700001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,55 +428,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="2">
-                  <c:v>727.79966784999999</c:v>
+                  <c:v>242.49878750600001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>735.60550214099999</c:v>
+                  <c:v>245.21207700900001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>735.92128391200004</c:v>
+                  <c:v>245.295883261</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>735.91715047900004</c:v>
+                  <c:v>245.30230363999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>735.92359589399996</c:v>
+                  <c:v>245.31126315700001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>735.92869808099999</c:v>
+                  <c:v>245.30616095900001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>735.94671651500005</c:v>
+                  <c:v>245.31895382799999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>735.91715047900004</c:v>
+                  <c:v>245.30230363999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>735.93515602299999</c:v>
+                  <c:v>245.31510843199999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>735.98644152899999</c:v>
+                  <c:v>245.32544937</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>735.89533932999996</c:v>
+                  <c:v>245.31310443699999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>735.91071890399996</c:v>
+                  <c:v>245.29511431700001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>735.89533932999996</c:v>
+                  <c:v>245.33625220600001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>735.91071890399996</c:v>
+                  <c:v>245.275892279</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>735.90047672499998</c:v>
+                  <c:v>245.332029076</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>735.90560323900002</c:v>
+                  <c:v>245.303846553</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>740.74074074099997</c:v>
+                  <c:v>246.86294768600001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,11 +492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="717268320"/>
-        <c:axId val="717260704"/>
+        <c:axId val="-295265120"/>
+        <c:axId val="-295270016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="717268320"/>
+        <c:axId val="-295265120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,7 +600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="717260704"/>
+        <c:crossAx val="-295270016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -608,9 +608,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="717260704"/>
+        <c:axId val="-295270016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="220"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -715,7 +716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="717268320"/>
+        <c:crossAx val="-295265120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -971,61 +972,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>410.81165088799997</c:v>
+                  <c:v>221.58069982699999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>413.34302539700002</c:v>
+                  <c:v>256.03151157100001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>383.01655833199999</c:v>
+                  <c:v>246.72205973800001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>425.37440532300002</c:v>
+                  <c:v>250.31226787400001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>419.91322426099998</c:v>
+                  <c:v>248.15761133500001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>412.62056989000001</c:v>
+                  <c:v>253.01737756700001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>413.32866692599998</c:v>
+                  <c:v>254.60446697200001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>411.81134523399999</c:v>
+                  <c:v>254.658616115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>412.63513265099999</c:v>
+                  <c:v>254.761369204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>412.27643421400001</c:v>
+                  <c:v>254.761369204</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>412.38202563700003</c:v>
+                  <c:v>254.89415152699999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>412.38202563700003</c:v>
+                  <c:v>254.88703029499999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>412.07960730600001</c:v>
+                  <c:v>254.981357495</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>412.10597284900001</c:v>
+                  <c:v>255.01281541200001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>412.49764319000002</c:v>
+                  <c:v>255.020681104</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>412.13481344899998</c:v>
+                  <c:v>255.052148725</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>412.87932708400001</c:v>
+                  <c:v>255.020681104</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>412.87932708400001</c:v>
+                  <c:v>255.020681104</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>323.86938688499998</c:v>
+                  <c:v>254.85052036799999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,55 +1132,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="2">
-                  <c:v>737.38067421999995</c:v>
+                  <c:v>245.76536737999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>737.49327764700001</c:v>
+                  <c:v>245.82878970300001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>731.11876027300002</c:v>
+                  <c:v>243.95792314100001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>734.49205967199998</c:v>
+                  <c:v>244.66566514799999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>736.08052846800001</c:v>
+                  <c:v>245.37870112900001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>736.00300985299998</c:v>
+                  <c:v>245.318184739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>736.07853180200004</c:v>
+                  <c:v>245.322030232</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>736.02571224999997</c:v>
+                  <c:v>245.347827728</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>735.85368461400003</c:v>
+                  <c:v>245.293817967</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>736.04224051599999</c:v>
+                  <c:v>245.333567432</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>735.93468422399997</c:v>
+                  <c:v>245.32081987500001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>735.94993972899999</c:v>
+                  <c:v>245.30280397600001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>735.98097772200003</c:v>
+                  <c:v>245.33625220600001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>735.85766208899997</c:v>
+                  <c:v>245.275892279</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>735.98602490600001</c:v>
+                  <c:v>245.332029076</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>735.91665999099996</c:v>
+                  <c:v>245.303846553</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>740.37590258</c:v>
+                  <c:v>246.74151422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1195,11 +1196,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="743317264"/>
-        <c:axId val="743318352"/>
+        <c:axId val="-295264576"/>
+        <c:axId val="-295273824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="743317264"/>
+        <c:axId val="-295264576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="743318352"/>
+        <c:crossAx val="-295273824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1311,9 +1312,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="743318352"/>
+        <c:axId val="-295273824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="220"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1418,7 +1420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="743317264"/>
+        <c:crossAx val="-295264576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2944,7 +2946,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="D3" sqref="D3:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2979,10 +2981,10 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>410.81165088799997</v>
+        <v>221.58069982699999</v>
       </c>
       <c r="D3">
-        <v>410.81165088799997</v>
+        <v>221.58069982699999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2990,10 +2992,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>413.34302539700002</v>
+        <v>256.03151157100001</v>
       </c>
       <c r="D4">
-        <v>413.34302539700002</v>
+        <v>256.03151157100001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3001,16 +3003,16 @@
         <v>1.5</v>
       </c>
       <c r="B5">
-        <v>402.73081299400002</v>
+        <v>247.44230311699999</v>
       </c>
       <c r="C5">
-        <v>727.79966784999999</v>
+        <v>242.49878750600001</v>
       </c>
       <c r="D5">
-        <v>383.01655833199999</v>
+        <v>246.72205973800001</v>
       </c>
       <c r="E5">
-        <v>737.38067421999995</v>
+        <v>245.76536737999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3018,16 +3020,16 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>412.555996478</v>
+        <v>254.58217312799999</v>
       </c>
       <c r="C6">
-        <v>735.60550214099999</v>
+        <v>245.21207700900001</v>
       </c>
       <c r="D6">
-        <v>425.37440532300002</v>
+        <v>250.31226787400001</v>
       </c>
       <c r="E6">
-        <v>737.49327764700001</v>
+        <v>245.82878970300001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3035,16 +3037,16 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <v>413.624212274</v>
+        <v>254.55101728599999</v>
       </c>
       <c r="C7">
-        <v>735.92128391200004</v>
+        <v>245.295883261</v>
       </c>
       <c r="D7">
-        <v>419.91322426099998</v>
+        <v>248.15761133500001</v>
       </c>
       <c r="E7">
-        <v>731.11876027300002</v>
+        <v>243.95792314100001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3052,16 +3054,16 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>413.355089986</v>
+        <v>254.68348230699999</v>
       </c>
       <c r="C8">
-        <v>735.91715047900004</v>
+        <v>245.30230363999999</v>
       </c>
       <c r="D8">
-        <v>412.62056989000001</v>
+        <v>253.01737756700001</v>
       </c>
       <c r="E8">
-        <v>734.49205967199998</v>
+        <v>244.66566514799999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3069,16 +3071,16 @@
         <v>3.5</v>
       </c>
       <c r="B9">
-        <v>413.77081493399999</v>
+        <v>254.72246884899999</v>
       </c>
       <c r="C9">
-        <v>735.92359589399996</v>
+        <v>245.31126315700001</v>
       </c>
       <c r="D9">
-        <v>413.32866692599998</v>
+        <v>254.60446697200001</v>
       </c>
       <c r="E9">
-        <v>736.08052846800001</v>
+        <v>245.37870112900001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3086,16 +3088,16 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>413.44098826800001</v>
+        <v>254.78487214800001</v>
       </c>
       <c r="C10">
-        <v>735.92869808099999</v>
+        <v>245.30616095900001</v>
       </c>
       <c r="D10">
-        <v>411.81134523399999</v>
+        <v>254.658616115</v>
       </c>
       <c r="E10">
-        <v>736.00300985299998</v>
+        <v>245.318184739</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3103,16 +3105,16 @@
         <v>4.5</v>
       </c>
       <c r="B11">
-        <v>413.876761961</v>
+        <v>254.84730603099999</v>
       </c>
       <c r="C11">
-        <v>735.94671651500005</v>
+        <v>245.31895382799999</v>
       </c>
       <c r="D11">
-        <v>412.63513265099999</v>
+        <v>254.761369204</v>
       </c>
       <c r="E11">
-        <v>736.07853180200004</v>
+        <v>245.322030232</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3120,16 +3122,16 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>414.28697303000001</v>
+        <v>254.87853444800001</v>
       </c>
       <c r="C12">
-        <v>735.91715047900004</v>
+        <v>245.30230363999999</v>
       </c>
       <c r="D12">
-        <v>412.27643421400001</v>
+        <v>254.761369204</v>
       </c>
       <c r="E12">
-        <v>736.02571224999997</v>
+        <v>245.347827728</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3137,16 +3139,16 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <v>413.98276325699999</v>
+        <v>254.97226563699999</v>
       </c>
       <c r="C13">
-        <v>735.93515602299999</v>
+        <v>245.31510843199999</v>
       </c>
       <c r="D13">
-        <v>412.38202563700003</v>
+        <v>254.89415152699999</v>
       </c>
       <c r="E13">
-        <v>735.85368461400003</v>
+        <v>245.293817967</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3154,16 +3156,16 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>414.39260316999997</v>
+        <v>255.003524688</v>
       </c>
       <c r="C14">
-        <v>735.98644152899999</v>
+        <v>245.32544937</v>
       </c>
       <c r="D14">
-        <v>412.38202563700003</v>
+        <v>254.88703029499999</v>
       </c>
       <c r="E14">
-        <v>736.04224051599999</v>
+        <v>245.333567432</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -3171,16 +3173,16 @@
         <v>6.5</v>
       </c>
       <c r="B15">
-        <v>414.02932521299999</v>
+        <v>255.02697400700001</v>
       </c>
       <c r="C15">
-        <v>735.89533932999996</v>
+        <v>245.31310443699999</v>
       </c>
       <c r="D15">
-        <v>412.07960730600001</v>
+        <v>254.981357495</v>
       </c>
       <c r="E15">
-        <v>735.93468422399997</v>
+        <v>245.32081987500001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3188,16 +3190,16 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>414.41311506900001</v>
+        <v>255.020681104</v>
       </c>
       <c r="C16">
-        <v>735.91071890399996</v>
+        <v>245.29511431700001</v>
       </c>
       <c r="D16">
-        <v>412.10597284900001</v>
+        <v>255.01281541200001</v>
       </c>
       <c r="E16">
-        <v>735.94993972899999</v>
+        <v>245.30280397600001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3205,16 +3207,16 @@
         <v>7.5</v>
       </c>
       <c r="B17">
-        <v>413.64596677600002</v>
+        <v>255.020681104</v>
       </c>
       <c r="C17">
-        <v>735.89533932999996</v>
+        <v>245.33625220600001</v>
       </c>
       <c r="D17">
-        <v>412.49764319000002</v>
+        <v>255.020681104</v>
       </c>
       <c r="E17">
-        <v>735.98097772200003</v>
+        <v>245.33625220600001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3222,16 +3224,16 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>413.64596677600002</v>
+        <v>255.052148725</v>
       </c>
       <c r="C18">
-        <v>735.91071890399996</v>
+        <v>245.275892279</v>
       </c>
       <c r="D18">
-        <v>412.13481344899998</v>
+        <v>255.052148725</v>
       </c>
       <c r="E18">
-        <v>735.85766208899997</v>
+        <v>245.275892279</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3239,16 +3241,16 @@
         <v>8.5</v>
       </c>
       <c r="B19">
-        <v>414.02915589999998</v>
+        <v>255.020681104</v>
       </c>
       <c r="C19">
-        <v>735.90047672499998</v>
+        <v>245.332029076</v>
       </c>
       <c r="D19">
-        <v>412.87932708400001</v>
+        <v>255.020681104</v>
       </c>
       <c r="E19">
-        <v>735.98602490600001</v>
+        <v>245.332029076</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3256,16 +3258,16 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>413.64596677600002</v>
+        <v>255.020681104</v>
       </c>
       <c r="C20">
-        <v>735.90560323900002</v>
+        <v>245.303846553</v>
       </c>
       <c r="D20">
-        <v>412.87932708400001</v>
+        <v>255.020681104</v>
       </c>
       <c r="E20">
-        <v>735.91665999099996</v>
+        <v>245.303846553</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3273,16 +3275,16 @@
         <v>9.5</v>
       </c>
       <c r="B21">
-        <v>110.759493671</v>
+        <v>255.02697400700001</v>
       </c>
       <c r="C21">
-        <v>740.74074074099997</v>
+        <v>246.86294768600001</v>
       </c>
       <c r="D21">
-        <v>323.86938688499998</v>
+        <v>254.85052036799999</v>
       </c>
       <c r="E21">
-        <v>740.37590258</v>
+        <v>246.74151422</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment 3/Trace Files/ThroughputGraph.xlsx
+++ b/Experiment 3/Trace Files/ThroughputGraph.xlsx
@@ -492,11 +492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-295265120"/>
-        <c:axId val="-295270016"/>
+        <c:axId val="-1841878384"/>
+        <c:axId val="-1841888176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-295265120"/>
+        <c:axId val="-1841878384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,7 +600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-295270016"/>
+        <c:crossAx val="-1841888176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -608,7 +608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-295270016"/>
+        <c:axId val="-1841888176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="220"/>
@@ -716,7 +716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-295265120"/>
+        <c:crossAx val="-1841878384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1196,11 +1196,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-295264576"/>
-        <c:axId val="-295273824"/>
+        <c:axId val="-1841887632"/>
+        <c:axId val="-1841882736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-295264576"/>
+        <c:axId val="-1841887632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-295273824"/>
+        <c:crossAx val="-1841882736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1312,7 +1312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-295273824"/>
+        <c:axId val="-1841882736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="220"/>
@@ -1420,7 +1420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-295264576"/>
+        <c:crossAx val="-1841887632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2946,7 +2946,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D21"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>

--- a/Experiment 3/Trace Files/ThroughputGraph.xlsx
+++ b/Experiment 3/Trace Files/ThroughputGraph.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jae\Documents\CS-5700-Project-3\Experiment 3\Trace Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akari\OneDrive\Documents\Northeastern\CS 5700\Project 3\Experiment 3\Trace Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_BE55D47D0476D648B0AD6F7C5E0360065ECDED8D" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23234" windowHeight="9487"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23235" windowHeight="9488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -133,7 +134,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -328,6 +328,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84DF-41B6-9D92-F880266D8C15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -482,6 +487,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-84DF-41B6-9D92-F880266D8C15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -533,7 +543,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -654,7 +663,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -729,7 +737,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -797,7 +804,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -836,7 +843,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1031,6 +1037,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C934-4ECD-8EB9-7519E229A390}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1185,6 +1196,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C934-4ECD-8EB9-7519E229A390}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1236,7 +1252,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1357,7 +1372,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1432,7 +1446,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2628,7 +2641,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2658,7 +2677,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2940,16 +2965,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -2957,7 +2982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2974,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -2985,7 +3010,7 @@
         <v>410.81165088799997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2996,7 +3021,7 @@
         <v>413.34302539700002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -3013,7 +3038,7 @@
         <v>737.38067421999995</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3030,7 +3055,7 @@
         <v>737.49327764700001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2.5</v>
       </c>
@@ -3047,7 +3072,7 @@
         <v>731.11876027300002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -3064,7 +3089,7 @@
         <v>734.49205967199998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3.5</v>
       </c>
@@ -3081,7 +3106,7 @@
         <v>736.08052846800001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>4</v>
       </c>
@@ -3098,7 +3123,7 @@
         <v>736.00300985299998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>4.5</v>
       </c>
@@ -3115,7 +3140,7 @@
         <v>736.07853180200004</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>5</v>
       </c>
@@ -3132,7 +3157,7 @@
         <v>736.02571224999997</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>5.5</v>
       </c>
@@ -3149,7 +3174,7 @@
         <v>735.85368461400003</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>6</v>
       </c>
@@ -3166,7 +3191,7 @@
         <v>736.04224051599999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>6.5</v>
       </c>
@@ -3183,7 +3208,7 @@
         <v>735.93468422399997</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>7</v>
       </c>
@@ -3200,7 +3225,7 @@
         <v>735.94993972899999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>7.5</v>
       </c>
@@ -3217,7 +3242,7 @@
         <v>735.98097772200003</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>8</v>
       </c>
@@ -3234,7 +3259,7 @@
         <v>735.85766208899997</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>8.5</v>
       </c>
@@ -3251,7 +3276,7 @@
         <v>735.98602490600001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>9</v>
       </c>
@@ -3268,7 +3293,7 @@
         <v>735.91665999099996</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>9.5</v>
       </c>

--- a/Experiment 3/Trace Files/ThroughputGraph.xlsx
+++ b/Experiment 3/Trace Files/ThroughputGraph.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akari\OneDrive\Documents\Northeastern\CS 5700\Project 3\Experiment 3\Trace Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jae\Documents\CS-5700-Project-3\Experiment 3\Trace Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_BE55D47D0476D648B0AD6F7C5E0360065ECDED8D" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23235" windowHeight="9488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23234" windowHeight="9487"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
-  <si>
-    <t>CBR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>DropTail</t>
   </si>
@@ -39,13 +35,22 @@
     <t>RED</t>
   </si>
   <si>
-    <t>TCP</t>
+    <t>DropTail TCP</t>
+  </si>
+  <si>
+    <t>DropTail CBR</t>
+  </si>
+  <si>
+    <t>RED TCP</t>
+  </si>
+  <si>
+    <t>RED CBR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,7 +100,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -129,11 +134,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Experiment 3: DropTail Throughput</a:t>
+              <a:t>Experiment 3: Throughput</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -178,7 +184,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TCP</c:v>
+                  <c:v>DropTail TCP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -268,67 +274,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>410.81165088799997</c:v>
+                  <c:v>221.58069982699999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>413.34302539700002</c:v>
+                  <c:v>256.03151157100001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>402.73081299400002</c:v>
+                  <c:v>256.03151157100001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>412.555996478</c:v>
+                  <c:v>256.03151157100001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>413.624212274</c:v>
+                  <c:v>256.03151157100001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>413.355089986</c:v>
+                  <c:v>256.03151157100001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>413.77081493399999</c:v>
+                  <c:v>256.03151157100001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>413.44098826800001</c:v>
+                  <c:v>256.03151157100001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>413.876761961</c:v>
+                  <c:v>256.03151157100001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>414.28697303000001</c:v>
+                  <c:v>256.03151157100001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>413.98276325699999</c:v>
+                  <c:v>247.80342516799999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>414.39260316999997</c:v>
+                  <c:v>254.61333659799999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>414.02932521299999</c:v>
+                  <c:v>254.675686431</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>414.41311506900001</c:v>
+                  <c:v>254.70687280000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>413.64596677600002</c:v>
+                  <c:v>254.72246884899999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>413.64596677600002</c:v>
+                  <c:v>254.75366667700001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>414.02915589999998</c:v>
+                  <c:v>254.816085265</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>413.64596677600002</c:v>
+                  <c:v>254.87853444800001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>110.759493671</c:v>
+                  <c:v>254.77707006399999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-84DF-41B6-9D92-F880266D8C15}"/>
             </c:ext>
@@ -343,7 +349,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CBR</c:v>
+                  <c:v>DropTail CBR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -432,66 +438,332 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
-                <c:pt idx="2">
-                  <c:v>727.79966784999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>735.60550214099999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>735.92128391200004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>735.91715047900004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>735.92359589399996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>735.92869808099999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>735.94671651500005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>735.91715047900004</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>735.93515602299999</c:v>
+                  <c:v>242.36146386300001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>735.98644152899999</c:v>
+                  <c:v>245.30230363999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>735.89533932999996</c:v>
+                  <c:v>245.330490739</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>735.91071890399996</c:v>
+                  <c:v>245.31001839800001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>735.89533932999996</c:v>
+                  <c:v>245.31895382799999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>735.91071890399996</c:v>
+                  <c:v>245.34474081499999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>735.90047672499998</c:v>
+                  <c:v>245.31895382799999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>735.90560323900002</c:v>
+                  <c:v>245.31001839800001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>740.74074074099997</c:v>
+                  <c:v>246.87307253700001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-84DF-41B6-9D92-F880266D8C15}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RED TCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>221.58069982699999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.03151157100001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256.03151157100001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.03151157100001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.03151157100001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256.03151157100001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256.03151157100001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.03151157100001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.03151157100001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.03151157100001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>241.87641108</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>247.38724083400001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>253.19691538000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>254.59775390900001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>254.66009611000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>254.72246884899999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>254.75366667700001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>254.83238629300001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>254.77707006399999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RED CBR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="10">
+                  <c:v>243.808885059</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>243.606120135</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>244.800147662</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>245.34474081499999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>245.31895382799999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>245.31001839800001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>245.33702387299999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>245.31510843199999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>246.873851406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -502,11 +774,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="717268320"/>
-        <c:axId val="717260704"/>
+        <c:axId val="-1647722000"/>
+        <c:axId val="-1647726352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="717268320"/>
+        <c:axId val="-1647722000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -543,6 +815,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -609,7 +882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="717260704"/>
+        <c:crossAx val="-1647726352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -617,9 +890,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="717260704"/>
+        <c:axId val="-1647726352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="220"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -663,6 +937,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -723,7 +998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="717268320"/>
+        <c:crossAx val="-1647722000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -737,715 +1012,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Experiment 3: RED Throughput</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TCP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>410.81165088799997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>413.34302539700002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>383.01655833199999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>425.37440532300002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>419.91322426099998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>412.62056989000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>413.32866692599998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>411.81134523399999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>412.63513265099999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>412.27643421400001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>412.38202563700003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>412.38202563700003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>412.07960730600001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>412.10597284900001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>412.49764319000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>412.13481344899998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>412.87932708400001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>412.87932708400001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>323.86938688499998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C934-4ECD-8EB9-7519E229A390}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CBR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$3:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="2">
-                  <c:v>737.38067421999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>737.49327764700001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>731.11876027300002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>734.49205967199998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>736.08052846800001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>736.00300985299998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>736.07853180200004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>736.02571224999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>735.85368461400003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>736.04224051599999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>735.93468422399997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>735.94993972899999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>735.98097772200003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>735.85766208899997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>735.98602490600001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>735.91665999099996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>740.37590258</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C934-4ECD-8EB9-7519E229A390}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="743317264"/>
-        <c:axId val="743318352"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="743317264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="743318352"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="743318352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Throughput (Kbps)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="743317264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1552,46 +1119,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2108,543 +1635,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>472567</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>80681</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180572</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>126785</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57629</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>553249</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138311</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2657,44 +1668,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>468727</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>84524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>122945</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>61472</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2965,349 +1938,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>410.81165088799997</v>
+        <v>221.58069982699999</v>
       </c>
       <c r="D3">
-        <v>410.81165088799997</v>
+        <v>221.58069982699999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>413.34302539700002</v>
+        <v>256.03151157100001</v>
       </c>
       <c r="D4">
-        <v>413.34302539700002</v>
+        <v>256.03151157100001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.5</v>
       </c>
       <c r="B5">
-        <v>402.73081299400002</v>
-      </c>
-      <c r="C5">
-        <v>727.79966784999999</v>
+        <v>256.03151157100001</v>
       </c>
       <c r="D5">
-        <v>383.01655833199999</v>
-      </c>
-      <c r="E5">
-        <v>737.38067421999995</v>
+        <v>256.03151157100001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>412.555996478</v>
-      </c>
-      <c r="C6">
-        <v>735.60550214099999</v>
+        <v>256.03151157100001</v>
       </c>
       <c r="D6">
-        <v>425.37440532300002</v>
-      </c>
-      <c r="E6">
-        <v>737.49327764700001</v>
+        <v>256.03151157100001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.5</v>
       </c>
       <c r="B7">
-        <v>413.624212274</v>
-      </c>
-      <c r="C7">
-        <v>735.92128391200004</v>
+        <v>256.03151157100001</v>
       </c>
       <c r="D7">
-        <v>419.91322426099998</v>
-      </c>
-      <c r="E7">
-        <v>731.11876027300002</v>
+        <v>256.03151157100001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>413.355089986</v>
-      </c>
-      <c r="C8">
-        <v>735.91715047900004</v>
+        <v>256.03151157100001</v>
       </c>
       <c r="D8">
-        <v>412.62056989000001</v>
-      </c>
-      <c r="E8">
-        <v>734.49205967199998</v>
+        <v>256.03151157100001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.5</v>
       </c>
       <c r="B9">
-        <v>413.77081493399999</v>
-      </c>
-      <c r="C9">
-        <v>735.92359589399996</v>
+        <v>256.03151157100001</v>
       </c>
       <c r="D9">
-        <v>413.32866692599998</v>
-      </c>
-      <c r="E9">
-        <v>736.08052846800001</v>
+        <v>256.03151157100001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10">
-        <v>413.44098826800001</v>
-      </c>
-      <c r="C10">
-        <v>735.92869808099999</v>
+        <v>256.03151157100001</v>
       </c>
       <c r="D10">
-        <v>411.81134523399999</v>
-      </c>
-      <c r="E10">
-        <v>736.00300985299998</v>
+        <v>256.03151157100001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4.5</v>
       </c>
       <c r="B11">
-        <v>413.876761961</v>
-      </c>
-      <c r="C11">
-        <v>735.94671651500005</v>
+        <v>256.03151157100001</v>
       </c>
       <c r="D11">
-        <v>412.63513265099999</v>
-      </c>
-      <c r="E11">
-        <v>736.07853180200004</v>
+        <v>256.03151157100001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>414.28697303000001</v>
-      </c>
-      <c r="C12">
-        <v>735.91715047900004</v>
+        <v>256.03151157100001</v>
       </c>
       <c r="D12">
-        <v>412.27643421400001</v>
-      </c>
-      <c r="E12">
-        <v>736.02571224999997</v>
+        <v>256.03151157100001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5.5</v>
       </c>
       <c r="B13">
-        <v>413.98276325699999</v>
+        <v>247.80342516799999</v>
       </c>
       <c r="C13">
-        <v>735.93515602299999</v>
+        <v>242.36146386300001</v>
       </c>
       <c r="D13">
-        <v>412.38202563700003</v>
+        <v>241.87641108</v>
       </c>
       <c r="E13">
-        <v>735.85368461400003</v>
+        <v>243.808885059</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14">
-        <v>414.39260316999997</v>
+        <v>254.61333659799999</v>
       </c>
       <c r="C14">
-        <v>735.98644152899999</v>
+        <v>245.30230363999999</v>
       </c>
       <c r="D14">
-        <v>412.38202563700003</v>
+        <v>247.38724083400001</v>
       </c>
       <c r="E14">
-        <v>736.04224051599999</v>
+        <v>243.606120135</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6.5</v>
       </c>
       <c r="B15">
-        <v>414.02932521299999</v>
+        <v>254.675686431</v>
       </c>
       <c r="C15">
-        <v>735.89533932999996</v>
+        <v>245.330490739</v>
       </c>
       <c r="D15">
-        <v>412.07960730600001</v>
+        <v>253.19691538000001</v>
       </c>
       <c r="E15">
-        <v>735.93468422399997</v>
+        <v>244.800147662</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16">
-        <v>414.41311506900001</v>
+        <v>254.70687280000001</v>
       </c>
       <c r="C16">
-        <v>735.91071890399996</v>
+        <v>245.31001839800001</v>
       </c>
       <c r="D16">
-        <v>412.10597284900001</v>
+        <v>254.59775390900001</v>
       </c>
       <c r="E16">
-        <v>735.94993972899999</v>
+        <v>245.34474081499999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7.5</v>
       </c>
       <c r="B17">
-        <v>413.64596677600002</v>
+        <v>254.72246884899999</v>
       </c>
       <c r="C17">
-        <v>735.89533932999996</v>
+        <v>245.31895382799999</v>
       </c>
       <c r="D17">
-        <v>412.49764319000002</v>
+        <v>254.66009611000001</v>
       </c>
       <c r="E17">
-        <v>735.98097772200003</v>
+        <v>245.31895382799999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
       <c r="B18">
-        <v>413.64596677600002</v>
+        <v>254.75366667700001</v>
       </c>
       <c r="C18">
-        <v>735.91071890399996</v>
+        <v>245.34474081499999</v>
       </c>
       <c r="D18">
-        <v>412.13481344899998</v>
+        <v>254.72246884899999</v>
       </c>
       <c r="E18">
-        <v>735.85766208899997</v>
+        <v>245.31001839800001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8.5</v>
       </c>
       <c r="B19">
-        <v>414.02915589999998</v>
+        <v>254.816085265</v>
       </c>
       <c r="C19">
-        <v>735.90047672499998</v>
+        <v>245.31895382799999</v>
       </c>
       <c r="D19">
-        <v>412.87932708400001</v>
+        <v>254.75366667700001</v>
       </c>
       <c r="E19">
-        <v>735.98602490600001</v>
+        <v>245.33702387299999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
       <c r="B20">
-        <v>413.64596677600002</v>
+        <v>254.87853444800001</v>
       </c>
       <c r="C20">
-        <v>735.90560323900002</v>
+        <v>245.31001839800001</v>
       </c>
       <c r="D20">
-        <v>412.87932708400001</v>
+        <v>254.83238629300001</v>
       </c>
       <c r="E20">
-        <v>735.91665999099996</v>
+        <v>245.31510843199999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9.5</v>
       </c>
       <c r="B21">
-        <v>110.759493671</v>
+        <v>254.77707006399999</v>
       </c>
       <c r="C21">
-        <v>740.74074074099997</v>
+        <v>246.87307253700001</v>
       </c>
       <c r="D21">
-        <v>323.86938688499998</v>
+        <v>254.77707006399999</v>
       </c>
       <c r="E21">
-        <v>740.37590258</v>
+        <v>246.873851406</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment 3/Trace Files/ThroughputGraph.xlsx
+++ b/Experiment 3/Trace Files/ThroughputGraph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>DropTail</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>RED CBR</t>
+  </si>
+  <si>
+    <t>T-Test, beginning from Time =  5.5:</t>
   </si>
 </sst>
 </file>
@@ -774,11 +777,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1647722000"/>
-        <c:axId val="-1647726352"/>
+        <c:axId val="1252963872"/>
+        <c:axId val="1252969312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1647722000"/>
+        <c:axId val="1252963872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647726352"/>
+        <c:crossAx val="1252969312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -890,7 +893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1647726352"/>
+        <c:axId val="1252969312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="220"/>
@@ -998,7 +1001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647722000"/>
+        <c:crossAx val="1252963872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1655,7 +1658,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2235,6 +2238,15 @@
         <v>246.873851406</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <f>TTEST(B13:B21,D13:D21,2,3)</f>
+        <v>0.35233936215057882</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Experiment 3/Trace Files/ThroughputGraph.xlsx
+++ b/Experiment 3/Trace Files/ThroughputGraph.xlsx
@@ -307,31 +307,31 @@
                   <c:v>256.03151157100001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>247.80342516799999</c:v>
+                  <c:v>235.797929133</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>254.61333659799999</c:v>
+                  <c:v>235.872281362</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>254.675686431</c:v>
+                  <c:v>235.49210692700001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>254.70687280000001</c:v>
+                  <c:v>224.10890499300001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>254.72246884899999</c:v>
+                  <c:v>239.32159573800001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>254.75366667700001</c:v>
+                  <c:v>223.93020841800001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>254.816085265</c:v>
+                  <c:v>241.49749786800001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>254.87853444800001</c:v>
+                  <c:v>225.91550279200001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>254.77707006399999</c:v>
+                  <c:v>247.5110071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -442,31 +442,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="10">
-                  <c:v>242.36146386300001</c:v>
+                  <c:v>237.09569219900001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>245.30230363999999</c:v>
+                  <c:v>231.949392784</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>245.330490739</c:v>
+                  <c:v>228.57328281400001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>245.31001839800001</c:v>
+                  <c:v>231.98925157400001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>245.31895382799999</c:v>
+                  <c:v>235.65076113800001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>245.34474081499999</c:v>
+                  <c:v>229.64380554799999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>245.31895382799999</c:v>
+                  <c:v>239.74208640699999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>245.31001839800001</c:v>
+                  <c:v>225.512461879</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>246.87307253700001</c:v>
+                  <c:v>246.67807497999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -607,31 +607,31 @@
                   <c:v>256.03151157100001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>241.87641108</c:v>
+                  <c:v>245.818285758</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>247.38724083400001</c:v>
+                  <c:v>240.27512822400001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>253.19691538000001</c:v>
+                  <c:v>240.35326647700001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>254.59775390900001</c:v>
+                  <c:v>242.02916632500001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>254.66009611000001</c:v>
+                  <c:v>243.82008585200001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>254.72246884899999</c:v>
+                  <c:v>243.307230882</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>254.75366667700001</c:v>
+                  <c:v>241.668441742</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>254.83238629300001</c:v>
+                  <c:v>243.81635796800001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>254.77707006399999</c:v>
+                  <c:v>240.32648749500001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,31 +737,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="10">
-                  <c:v>243.808885059</c:v>
+                  <c:v>243.58855218299999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>243.606120135</c:v>
+                  <c:v>241.56150212200001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>244.800147662</c:v>
+                  <c:v>236.044791936</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>245.34474081499999</c:v>
+                  <c:v>237.23315102800001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>245.31895382799999</c:v>
+                  <c:v>243.13472166400001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>245.31001839800001</c:v>
+                  <c:v>237.99501103</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>245.33702387299999</c:v>
+                  <c:v>237.90067183799999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>245.31510843199999</c:v>
+                  <c:v>242.91571910499999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>246.873851406</c:v>
+                  <c:v>245.603648263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,11 +777,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1252963872"/>
-        <c:axId val="1252969312"/>
+        <c:axId val="-899907824"/>
+        <c:axId val="-899912720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1252963872"/>
+        <c:axId val="-899907824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,7 +885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1252969312"/>
+        <c:crossAx val="-899912720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -893,7 +893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1252969312"/>
+        <c:axId val="-899912720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="220"/>
@@ -1001,7 +1001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1252963872"/>
+        <c:crossAx val="-899907824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1643,15 +1643,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>180572</xdr:colOff>
+      <xdr:colOff>180573</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>553249</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>138311</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>153681</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61472</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1945,7 +1945,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2090,16 +2090,16 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <v>247.80342516799999</v>
+        <v>235.797929133</v>
       </c>
       <c r="C13">
-        <v>242.36146386300001</v>
+        <v>237.09569219900001</v>
       </c>
       <c r="D13">
-        <v>241.87641108</v>
+        <v>245.818285758</v>
       </c>
       <c r="E13">
-        <v>243.808885059</v>
+        <v>243.58855218299999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2107,16 +2107,16 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>254.61333659799999</v>
+        <v>235.872281362</v>
       </c>
       <c r="C14">
-        <v>245.30230363999999</v>
+        <v>231.949392784</v>
       </c>
       <c r="D14">
-        <v>247.38724083400001</v>
+        <v>240.27512822400001</v>
       </c>
       <c r="E14">
-        <v>243.606120135</v>
+        <v>241.56150212200001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2124,16 +2124,16 @@
         <v>6.5</v>
       </c>
       <c r="B15">
-        <v>254.675686431</v>
+        <v>235.49210692700001</v>
       </c>
       <c r="C15">
-        <v>245.330490739</v>
+        <v>228.57328281400001</v>
       </c>
       <c r="D15">
-        <v>253.19691538000001</v>
+        <v>240.35326647700001</v>
       </c>
       <c r="E15">
-        <v>244.800147662</v>
+        <v>236.044791936</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2141,16 +2141,16 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>254.70687280000001</v>
+        <v>224.10890499300001</v>
       </c>
       <c r="C16">
-        <v>245.31001839800001</v>
+        <v>231.98925157400001</v>
       </c>
       <c r="D16">
-        <v>254.59775390900001</v>
+        <v>242.02916632500001</v>
       </c>
       <c r="E16">
-        <v>245.34474081499999</v>
+        <v>237.23315102800001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2158,16 +2158,16 @@
         <v>7.5</v>
       </c>
       <c r="B17">
-        <v>254.72246884899999</v>
+        <v>239.32159573800001</v>
       </c>
       <c r="C17">
-        <v>245.31895382799999</v>
+        <v>235.65076113800001</v>
       </c>
       <c r="D17">
-        <v>254.66009611000001</v>
+        <v>243.82008585200001</v>
       </c>
       <c r="E17">
-        <v>245.31895382799999</v>
+        <v>243.13472166400001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2175,16 +2175,16 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>254.75366667700001</v>
+        <v>223.93020841800001</v>
       </c>
       <c r="C18">
-        <v>245.34474081499999</v>
+        <v>229.64380554799999</v>
       </c>
       <c r="D18">
-        <v>254.72246884899999</v>
+        <v>243.307230882</v>
       </c>
       <c r="E18">
-        <v>245.31001839800001</v>
+        <v>237.99501103</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2192,16 +2192,16 @@
         <v>8.5</v>
       </c>
       <c r="B19">
-        <v>254.816085265</v>
+        <v>241.49749786800001</v>
       </c>
       <c r="C19">
-        <v>245.31895382799999</v>
+        <v>239.74208640699999</v>
       </c>
       <c r="D19">
-        <v>254.75366667700001</v>
+        <v>241.668441742</v>
       </c>
       <c r="E19">
-        <v>245.33702387299999</v>
+        <v>237.90067183799999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2209,16 +2209,16 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>254.87853444800001</v>
+        <v>225.91550279200001</v>
       </c>
       <c r="C20">
-        <v>245.31001839800001</v>
+        <v>225.512461879</v>
       </c>
       <c r="D20">
-        <v>254.83238629300001</v>
+        <v>243.81635796800001</v>
       </c>
       <c r="E20">
-        <v>245.31510843199999</v>
+        <v>242.91571910499999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2226,16 +2226,16 @@
         <v>9.5</v>
       </c>
       <c r="B21">
-        <v>254.77707006399999</v>
+        <v>247.5110071</v>
       </c>
       <c r="C21">
-        <v>246.87307253700001</v>
+        <v>246.67807497999999</v>
       </c>
       <c r="D21">
-        <v>254.77707006399999</v>
+        <v>240.32648749500001</v>
       </c>
       <c r="E21">
-        <v>246.873851406</v>
+        <v>245.603648263</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="C24">
         <f>TTEST(B13:B21,D13:D21,2,3)</f>
-        <v>0.35233936215057882</v>
+        <v>1.9529075036152362E-2</v>
       </c>
     </row>
   </sheetData>
